--- a/project/CV/CV_19.xlsx
+++ b/project/CV/CV_19.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,250 +498,250 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>barbour</t>
+          <t>bernalillo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>80018</v>
+        <v>4479670</v>
       </c>
       <c r="D2" t="n">
-        <v>1155</v>
+        <v>75511</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>54001</v>
+        <v>35001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.092</v>
+        <v>0.036</v>
       </c>
       <c r="H2" t="n">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.057</v>
       </c>
       <c r="J2" t="n">
-        <v>0.287</v>
+        <v>0.135</v>
       </c>
       <c r="K2" t="n">
-        <v>0.519</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>berkeley</t>
+          <t>catron</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>701027</v>
+        <v>6098</v>
       </c>
       <c r="D3" t="n">
-        <v>6955</v>
+        <v>426</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>54003</v>
+        <v>35003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.065</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.049</v>
+        <v>0.039</v>
       </c>
       <c r="I3" t="n">
-        <v>0.196</v>
+        <v>0.036</v>
       </c>
       <c r="J3" t="n">
-        <v>0.166</v>
+        <v>0.109</v>
       </c>
       <c r="K3" t="n">
-        <v>0.524</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>boone</t>
+          <t>chaves</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>119643</v>
+        <v>752288</v>
       </c>
       <c r="D4" t="n">
-        <v>2099</v>
+        <v>9243</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>54005</v>
+        <v>35005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.097</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.138</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>0.093</v>
+        <v>0.108</v>
       </c>
       <c r="J4" t="n">
-        <v>0.197</v>
+        <v>0.144</v>
       </c>
       <c r="K4" t="n">
-        <v>0.475</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>braxton</t>
+          <t>cibola</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40093</v>
+        <v>343482</v>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>9358</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>54007</v>
+        <v>35006</v>
       </c>
       <c r="G5" t="n">
-        <v>0.102</v>
+        <v>0.003</v>
       </c>
       <c r="H5" t="n">
-        <v>0.131</v>
+        <v>0.059</v>
       </c>
       <c r="I5" t="n">
-        <v>0.167</v>
+        <v>0.014</v>
       </c>
       <c r="J5" t="n">
-        <v>0.202</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.398</v>
+        <v>0.8390000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>brooke</t>
+          <t>colfax</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>133585</v>
+        <v>55497</v>
       </c>
       <c r="D6" t="n">
-        <v>2711</v>
+        <v>1983</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>54009</v>
+        <v>35007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.067</v>
+        <v>0.041</v>
       </c>
       <c r="H6" t="n">
-        <v>0.11</v>
+        <v>0.019</v>
       </c>
       <c r="I6" t="n">
-        <v>0.195</v>
+        <v>0.091</v>
       </c>
       <c r="J6" t="n">
-        <v>0.192</v>
+        <v>0.106</v>
       </c>
       <c r="K6" t="n">
-        <v>0.436</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cabell</t>
+          <t>curry</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>557203</v>
+        <v>473515</v>
       </c>
       <c r="D7" t="n">
-        <v>10325</v>
+        <v>4500</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>54011</v>
+        <v>35009</v>
       </c>
       <c r="G7" t="n">
-        <v>0.092</v>
+        <v>0.011</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09</v>
+        <v>0.129</v>
       </c>
       <c r="I7" t="n">
-        <v>0.154</v>
+        <v>0.111</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1860000000000001</v>
+        <v>0.209</v>
       </c>
       <c r="K7" t="n">
-        <v>0.476</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>calhoun</t>
+          <t>de baca</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15049</v>
+        <v>8159</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -750,1894 +750,1036 @@
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>54013</v>
+        <v>35011</v>
       </c>
       <c r="G8" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.227</v>
-      </c>
       <c r="J8" t="n">
-        <v>0.21</v>
+        <v>0.098</v>
       </c>
       <c r="K8" t="n">
-        <v>0.408</v>
+        <v>0.7120000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>doña ana</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26529</v>
+        <v>2078493</v>
       </c>
       <c r="D9" t="n">
-        <v>573</v>
+        <v>31022</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>54015</v>
+        <v>35013</v>
       </c>
       <c r="G9" t="n">
-        <v>0.098</v>
+        <v>0.011</v>
       </c>
       <c r="H9" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.097</v>
       </c>
-      <c r="I9" t="n">
-        <v>0.162</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.152</v>
-      </c>
       <c r="K9" t="n">
-        <v>0.491</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>doddridge</t>
+          <t>eddy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26623</v>
+        <v>499657</v>
       </c>
       <c r="D10" t="n">
-        <v>360</v>
+        <v>7743</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>54017</v>
+        <v>35015</v>
       </c>
       <c r="G10" t="n">
-        <v>0.187</v>
+        <v>0.2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.011</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.075</v>
+        <v>0.092</v>
       </c>
       <c r="J10" t="n">
-        <v>0.307</v>
+        <v>0.239</v>
       </c>
       <c r="K10" t="n">
-        <v>0.42</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fayette</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>216885</v>
+        <v>95884</v>
       </c>
       <c r="D11" t="n">
-        <v>6147</v>
+        <v>1674</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>54019</v>
+        <v>35017</v>
       </c>
       <c r="G11" t="n">
-        <v>0.14</v>
+        <v>0.043</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.031</v>
       </c>
       <c r="I11" t="n">
-        <v>0.226</v>
+        <v>0.15</v>
       </c>
       <c r="J11" t="n">
-        <v>0.137</v>
+        <v>0.205</v>
       </c>
       <c r="K11" t="n">
-        <v>0.409</v>
+        <v>0.5720000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>gilmer</t>
+          <t>guadalupe</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40916</v>
+        <v>45299</v>
       </c>
       <c r="D12" t="n">
-        <v>227</v>
+        <v>526</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>54021</v>
+        <v>35019</v>
       </c>
       <c r="G12" t="n">
-        <v>0.141</v>
+        <v>0.014</v>
       </c>
       <c r="H12" t="n">
-        <v>0.076</v>
+        <v>0.049</v>
       </c>
       <c r="I12" t="n">
-        <v>0.144</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>0.236</v>
+        <v>0.098</v>
       </c>
       <c r="K12" t="n">
-        <v>0.403</v>
+        <v>0.7659999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>harding</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>81667</v>
+        <v>902</v>
       </c>
       <c r="D13" t="n">
-        <v>2043</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>54023</v>
+        <v>35021</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1</v>
+        <v>0.057</v>
       </c>
       <c r="H13" t="n">
-        <v>0.232</v>
+        <v>0.152</v>
       </c>
       <c r="I13" t="n">
-        <v>0.067</v>
+        <v>0.062</v>
       </c>
       <c r="J13" t="n">
-        <v>0.193</v>
+        <v>0.115</v>
       </c>
       <c r="K13" t="n">
-        <v>0.407</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>greenbrier</t>
+          <t>hidalgo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>143553</v>
+        <v>35897</v>
       </c>
       <c r="D14" t="n">
-        <v>3084</v>
+        <v>752</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>54025</v>
+        <v>35023</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.056</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.113</v>
+        <v>0.1860000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>0.233</v>
+        <v>0.153</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5539999999999999</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hampshire</t>
+          <t>lea</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>95109</v>
+        <v>755335</v>
       </c>
       <c r="D15" t="n">
-        <v>1488</v>
+        <v>9692</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>54027</v>
+        <v>35025</v>
       </c>
       <c r="G15" t="n">
-        <v>0.021</v>
+        <v>0.112</v>
       </c>
       <c r="H15" t="n">
-        <v>0.035</v>
+        <v>0.024</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="J15" t="n">
-        <v>0.236</v>
+        <v>0.331</v>
       </c>
       <c r="K15" t="n">
-        <v>0.619</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hancock</t>
+          <t>lincoln</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>170845</v>
+        <v>122662</v>
       </c>
       <c r="D16" t="n">
-        <v>3731</v>
+        <v>1344</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>54029</v>
+        <v>35027</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="H16" t="n">
-        <v>0.128</v>
+        <v>0.012</v>
       </c>
       <c r="I16" t="n">
-        <v>0.151</v>
+        <v>0.055</v>
       </c>
       <c r="J16" t="n">
-        <v>0.19</v>
+        <v>0.162</v>
       </c>
       <c r="K16" t="n">
-        <v>0.459</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hardy</t>
+          <t>los alamos</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>80051</v>
+        <v>30457</v>
       </c>
       <c r="D17" t="n">
-        <v>784</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>54031</v>
+        <v>35028</v>
       </c>
       <c r="G17" t="n">
-        <v>0.039</v>
+        <v>0.001</v>
       </c>
       <c r="H17" t="n">
-        <v>0.152</v>
+        <v>0.041</v>
       </c>
       <c r="I17" t="n">
-        <v>0.103</v>
+        <v>0.076</v>
       </c>
       <c r="J17" t="n">
-        <v>0.23</v>
+        <v>0.173</v>
       </c>
       <c r="K17" t="n">
-        <v>0.476</v>
+        <v>0.7090000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>harrison</t>
+          <t>luna</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>312603</v>
+        <v>277663</v>
       </c>
       <c r="D18" t="n">
-        <v>4001</v>
+        <v>4730</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>54033</v>
+        <v>35029</v>
       </c>
       <c r="G18" t="n">
-        <v>0.132</v>
+        <v>0.105</v>
       </c>
       <c r="H18" t="n">
-        <v>0.021</v>
+        <v>0.046</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.024</v>
       </c>
       <c r="J18" t="n">
-        <v>0.319</v>
+        <v>0.11</v>
       </c>
       <c r="K18" t="n">
-        <v>0.457</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>jackson</t>
+          <t>mckinley</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>147204</v>
+        <v>1573969</v>
       </c>
       <c r="D19" t="n">
-        <v>7101</v>
+        <v>70083</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>54035</v>
+        <v>35031</v>
       </c>
       <c r="G19" t="n">
-        <v>0.111</v>
+        <v>0.01</v>
       </c>
       <c r="H19" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="I19" t="n">
-        <v>0.097</v>
+        <v>0.008</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2160000000000001</v>
+        <v>0.202</v>
       </c>
       <c r="K19" t="n">
-        <v>0.522</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>jefferson</t>
+          <t>mora</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>276904</v>
+        <v>9961</v>
       </c>
       <c r="D20" t="n">
-        <v>2958</v>
+        <v>230</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>54037</v>
+        <v>35033</v>
       </c>
       <c r="G20" t="n">
-        <v>0.041</v>
+        <v>0.002</v>
       </c>
       <c r="H20" t="n">
-        <v>0.038</v>
+        <v>0.027</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2</v>
+        <v>0.067</v>
       </c>
       <c r="J20" t="n">
-        <v>0.169</v>
+        <v>0.098</v>
       </c>
       <c r="K20" t="n">
-        <v>0.552</v>
+        <v>0.8059999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>kanawha</t>
+          <t>otero</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1044883</v>
+        <v>478161</v>
       </c>
       <c r="D21" t="n">
-        <v>26894</v>
+        <v>5186</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>54039</v>
+        <v>35035</v>
       </c>
       <c r="G21" t="n">
-        <v>0.145</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.039</v>
+        <v>0.03</v>
       </c>
       <c r="I21" t="n">
-        <v>0.064</v>
+        <v>0.143</v>
       </c>
       <c r="J21" t="n">
-        <v>0.147</v>
+        <v>0.158</v>
       </c>
       <c r="K21" t="n">
-        <v>0.605</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>lewis</t>
+          <t>quay</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>55031</v>
+        <v>38005</v>
       </c>
       <c r="D22" t="n">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>54041</v>
+        <v>35037</v>
       </c>
       <c r="G22" t="n">
-        <v>0.161</v>
+        <v>0.049</v>
       </c>
       <c r="H22" t="n">
-        <v>0.029</v>
+        <v>0.152</v>
       </c>
       <c r="I22" t="n">
-        <v>0.068</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>0.288</v>
+        <v>0.159</v>
       </c>
       <c r="K22" t="n">
-        <v>0.454</v>
+        <v>0.5710000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>lincoln</t>
+          <t>rio arriba</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>88116</v>
+        <v>254731</v>
       </c>
       <c r="D23" t="n">
-        <v>838</v>
+        <v>4903</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>54043</v>
+        <v>35039</v>
       </c>
       <c r="G23" t="n">
-        <v>0.091</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0.077</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.164</v>
+        <v>0.102</v>
       </c>
       <c r="J23" t="n">
-        <v>0.167</v>
+        <v>0.162</v>
       </c>
       <c r="K23" t="n">
-        <v>0.501</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>logan</t>
+          <t>roosevelt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>214731</v>
+        <v>164403</v>
       </c>
       <c r="D24" t="n">
-        <v>8884</v>
+        <v>3045</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>54045</v>
+        <v>35041</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08199999999999999</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.154</v>
       </c>
       <c r="I24" t="n">
-        <v>0.116</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.247</v>
+        <v>0.146</v>
       </c>
       <c r="K24" t="n">
-        <v>0.445</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>marion</t>
+          <t>san juan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>218100</v>
+        <v>1420475</v>
       </c>
       <c r="D25" t="n">
-        <v>1962</v>
+        <v>60537</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F25" t="n">
-        <v>54049</v>
+        <v>35045</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.057</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06</v>
+        <v>0.015</v>
       </c>
       <c r="I25" t="n">
-        <v>0.111</v>
+        <v>0.118</v>
       </c>
       <c r="J25" t="n">
-        <v>0.281</v>
+        <v>0.255</v>
       </c>
       <c r="K25" t="n">
-        <v>0.479</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>marshall</t>
+          <t>san miguel</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>208996</v>
+        <v>84573</v>
       </c>
       <c r="D26" t="n">
-        <v>4301</v>
+        <v>379</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F26" t="n">
-        <v>54051</v>
+        <v>35047</v>
       </c>
       <c r="G26" t="n">
-        <v>0.075</v>
+        <v>0.004</v>
       </c>
       <c r="H26" t="n">
-        <v>0.095</v>
+        <v>0.02</v>
       </c>
       <c r="I26" t="n">
-        <v>0.077</v>
+        <v>0.057</v>
       </c>
       <c r="J26" t="n">
-        <v>0.256</v>
+        <v>0.119</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4970000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mason</t>
+          <t>sandoval</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>107949</v>
+        <v>924402</v>
       </c>
       <c r="D27" t="n">
-        <v>2024</v>
+        <v>18437</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F27" t="n">
-        <v>54053</v>
+        <v>35043</v>
       </c>
       <c r="G27" t="n">
-        <v>0.081</v>
+        <v>0.017</v>
       </c>
       <c r="H27" t="n">
-        <v>0.095</v>
+        <v>0.015</v>
       </c>
       <c r="I27" t="n">
-        <v>0.195</v>
+        <v>0.096</v>
       </c>
       <c r="J27" t="n">
-        <v>0.149</v>
+        <v>0.11</v>
       </c>
       <c r="K27" t="n">
-        <v>0.481</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mcdowell</t>
+          <t>santa fe</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>94211</v>
+        <v>802887</v>
       </c>
       <c r="D28" t="n">
-        <v>578</v>
+        <v>7647</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F28" t="n">
-        <v>54047</v>
+        <v>35049</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="H28" t="n">
-        <v>0.095</v>
+        <v>0.016</v>
       </c>
       <c r="I28" t="n">
-        <v>0.189</v>
+        <v>0.031</v>
       </c>
       <c r="J28" t="n">
-        <v>0.226</v>
+        <v>0.143</v>
       </c>
       <c r="K28" t="n">
-        <v>0.42</v>
+        <v>0.8029999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mercer</t>
+          <t>sierra</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>291464</v>
+        <v>53743</v>
       </c>
       <c r="D29" t="n">
-        <v>7978</v>
+        <v>2536</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F29" t="n">
-        <v>54055</v>
+        <v>35051</v>
       </c>
       <c r="G29" t="n">
-        <v>0.076</v>
+        <v>0.03</v>
       </c>
       <c r="H29" t="n">
-        <v>0.152</v>
+        <v>0.039</v>
       </c>
       <c r="I29" t="n">
-        <v>0.174</v>
+        <v>0.033</v>
       </c>
       <c r="J29" t="n">
-        <v>0.103</v>
+        <v>0.239</v>
       </c>
       <c r="K29" t="n">
-        <v>0.495</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>socorro</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>198663</v>
+        <v>100030</v>
       </c>
       <c r="D30" t="n">
-        <v>5311</v>
+        <v>4737</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F30" t="n">
-        <v>54057</v>
+        <v>35053</v>
       </c>
       <c r="G30" t="n">
-        <v>0.033</v>
+        <v>0.002</v>
       </c>
       <c r="H30" t="n">
-        <v>0.016</v>
+        <v>0.008</v>
       </c>
       <c r="I30" t="n">
-        <v>0.042</v>
+        <v>0.05</v>
       </c>
       <c r="J30" t="n">
-        <v>0.234</v>
+        <v>0.193</v>
       </c>
       <c r="K30" t="n">
-        <v>0.674</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mingo</t>
+          <t>taos</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>171998</v>
+        <v>122562</v>
       </c>
       <c r="D31" t="n">
-        <v>2769</v>
+        <v>3531</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F31" t="n">
-        <v>54059</v>
+        <v>35055</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.006</v>
       </c>
       <c r="H31" t="n">
-        <v>0.093</v>
+        <v>0.041</v>
       </c>
       <c r="I31" t="n">
-        <v>0.093</v>
+        <v>0.055</v>
       </c>
       <c r="J31" t="n">
-        <v>0.172</v>
+        <v>0.113</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5579999999999999</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>monongalia</t>
+          <t>torrance</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>681461</v>
+        <v>64108</v>
       </c>
       <c r="D32" t="n">
-        <v>3944</v>
+        <v>678</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F32" t="n">
-        <v>54061</v>
+        <v>35057</v>
       </c>
       <c r="G32" t="n">
-        <v>0.046</v>
+        <v>0.097</v>
       </c>
       <c r="H32" t="n">
-        <v>0.077</v>
+        <v>0.005</v>
       </c>
       <c r="I32" t="n">
-        <v>0.139</v>
+        <v>0.035</v>
       </c>
       <c r="J32" t="n">
-        <v>0.221</v>
+        <v>0.167</v>
       </c>
       <c r="K32" t="n">
-        <v>0.517</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>monroe</t>
+          <t>union</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>72722</v>
+        <v>33054</v>
       </c>
       <c r="D33" t="n">
-        <v>1529</v>
+        <v>774</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F33" t="n">
-        <v>54063</v>
+        <v>35059</v>
       </c>
       <c r="G33" t="n">
-        <v>0.048</v>
+        <v>0.12</v>
       </c>
       <c r="H33" t="n">
-        <v>0.063</v>
+        <v>0.118</v>
       </c>
       <c r="I33" t="n">
-        <v>0.116</v>
+        <v>0.127</v>
       </c>
       <c r="J33" t="n">
-        <v>0.14</v>
+        <v>0.242</v>
       </c>
       <c r="K33" t="n">
-        <v>0.634</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>morgan</t>
+          <t>valencia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>west virginia</t>
+          <t>new mexico</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>63750</v>
+        <v>518599</v>
       </c>
       <c r="D34" t="n">
-        <v>588</v>
+        <v>5771</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F34" t="n">
-        <v>54065</v>
+        <v>35061</v>
       </c>
       <c r="G34" t="n">
-        <v>0.025</v>
+        <v>0.006</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>0.169</v>
+        <v>0.143</v>
       </c>
       <c r="J34" t="n">
-        <v>0.258</v>
+        <v>0.195</v>
       </c>
       <c r="K34" t="n">
-        <v>0.463</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>nicholas</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>74455</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1031</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F35" t="n">
-        <v>54067</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.08800000000000001</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.542</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>ohio</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>272288</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4316</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F36" t="n">
-        <v>54069</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.243</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>pendleton</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>35782</v>
-      </c>
-      <c r="D37" t="n">
-        <v>356</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F37" t="n">
-        <v>54071</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.456</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>pleasants</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>43191</v>
-      </c>
-      <c r="D38" t="n">
-        <v>940</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F38" t="n">
-        <v>54073</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.08800000000000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.287</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.346</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>pocahontas</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>40656</v>
-      </c>
-      <c r="D39" t="n">
-        <v>536</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F39" t="n">
-        <v>54075</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.499</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>preston</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>162067</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2829</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F40" t="n">
-        <v>54077</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>putnam</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>324682</v>
-      </c>
-      <c r="D41" t="n">
-        <v>5398</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F41" t="n">
-        <v>54079</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.08800000000000001</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.593</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>raleigh</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>310476</v>
-      </c>
-      <c r="D42" t="n">
-        <v>3325</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F42" t="n">
-        <v>54081</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.148</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.426</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>randolph</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>163187</v>
-      </c>
-      <c r="D43" t="n">
-        <v>576</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F43" t="n">
-        <v>54083</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.447</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>ritchie</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>34246</v>
-      </c>
-      <c r="D44" t="n">
-        <v>546</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F44" t="n">
-        <v>54085</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.356</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>roane</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>35021</v>
-      </c>
-      <c r="D45" t="n">
-        <v>660</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F45" t="n">
-        <v>54087</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.08199999999999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.191</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.493</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>summers</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>47702</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1402</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F46" t="n">
-        <v>54089</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.5670000000000001</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>taylor</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>75219</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1697</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F47" t="n">
-        <v>54091</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.07200000000000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.517</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>tucker</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>31664</v>
-      </c>
-      <c r="D48" t="n">
-        <v>263</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F48" t="n">
-        <v>54093</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.465</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>tyler</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>34920</v>
-      </c>
-      <c r="D49" t="n">
-        <v>196</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F49" t="n">
-        <v>54095</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.452</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>upshur</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>100535</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1037</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F50" t="n">
-        <v>54097</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>wayne</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>204533</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3827</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F51" t="n">
-        <v>54099</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.119</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.1860000000000001</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.162</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.423</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>webster</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>15598</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F52" t="n">
-        <v>54101</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.479</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>wetzel</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>73581</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1551</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F53" t="n">
-        <v>54103</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.279</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.521</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>wirt</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>22043</v>
-      </c>
-      <c r="D54" t="n">
-        <v>112</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F54" t="n">
-        <v>54105</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.219</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.389</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>wood</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>474009</v>
-      </c>
-      <c r="D55" t="n">
-        <v>5832</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F55" t="n">
-        <v>54107</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.277</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.381</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>wyoming</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>west virginia</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>119361</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2058</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F56" t="n">
-        <v>54109</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.408</v>
+        <v>0.648</v>
       </c>
     </row>
   </sheetData>
